--- a/製品/５結合テスト/結合テスト.xlsx
+++ b/製品/５結合テスト/結合テスト.xlsx
@@ -389,9 +389,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,43 +398,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,8 +419,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,14 +497,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,33 +519,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,181 +554,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,6 +807,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -818,21 +857,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,8 +878,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -870,21 +896,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -893,24 +904,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -919,7 +919,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -928,127 +928,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1447,10 +1447,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2217,27 +2217,6 @@
       </c>
       <c r="L23" s="24">
         <v>45028</v>
-      </c>
-    </row>
-    <row r="24" ht="100" customHeight="1" spans="1:2">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" ht="100" customHeight="1" spans="1:1">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" ht="100" customHeight="1" spans="1:1">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" ht="100" customHeight="1" spans="1:1">
-      <c r="A27" s="4">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
